--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221117_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/4.TraBH/TBH221117_AnhTuanNB.xlsx
@@ -99,18 +99,12 @@
     <t>00BD000A70</t>
   </si>
   <si>
-    <t>00BD000711/VM21051100S0498</t>
-  </si>
-  <si>
     <t>VNSH02</t>
   </si>
   <si>
     <t>WSP21060008S0123</t>
   </si>
   <si>
-    <t>WSP21060008S0085/0032000ADE</t>
-  </si>
-  <si>
     <t>WP21110052S00411/0032000FD2</t>
   </si>
   <si>
@@ -120,15 +114,9 @@
     <t>WP21110052S00774/0032000C1F</t>
   </si>
   <si>
-    <t>WSP21060008S0029/0032000A89</t>
-  </si>
-  <si>
     <t>WP21110069S00061/0032001182</t>
   </si>
   <si>
-    <t>WSP21110069S00324/0032001125</t>
-  </si>
-  <si>
     <t>WP21110052S00663/0032000E7F</t>
   </si>
   <si>
@@ -175,6 +163,18 @@
   </si>
   <si>
     <t>ĐC: AA46 TT19 KĐT Văn Quán, Phường Văn Quán, Quận Hà Đông,TP Hà Nội</t>
+  </si>
+  <si>
+    <t>00BD000ED6/ WM21051535S0316</t>
+  </si>
+  <si>
+    <t>00320040CF/ WP22050219S01847</t>
+  </si>
+  <si>
+    <t>0032004147/ WP22050219S01846</t>
+  </si>
+  <si>
+    <t>0032004808/ WP22050219S01850</t>
   </si>
 </sst>
 </file>
@@ -763,6 +763,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,6 +841,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -831,69 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,7 +1254,7 @@
   </sheetPr>
   <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -1275,77 +1275,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="75" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="69" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="72" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="68"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -1354,58 +1354,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="53"/>
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
       <c r="L11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1444,22 +1444,22 @@
       <c r="A13" s="29">
         <v>1</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58" t="s">
-        <v>25</v>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="18"/>
@@ -1468,26 +1468,26 @@
       <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="57" t="s">
+      <c r="D14" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="58" t="s">
-        <v>28</v>
+      <c r="F14" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="18"/>
@@ -1496,22 +1496,22 @@
       <c r="A15" s="29">
         <v>3</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="57" t="s">
+      <c r="B15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="57"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="18"/>
@@ -1520,26 +1520,26 @@
       <c r="A16" s="29">
         <v>4</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="57" t="s">
+      <c r="B16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>32</v>
+      <c r="F16" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="18"/>
@@ -1548,26 +1548,26 @@
       <c r="A17" s="29">
         <v>5</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="57" t="s">
+      <c r="B17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="58" t="s">
-        <v>34</v>
+      <c r="F17" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I17" s="17"/>
       <c r="J17" s="18"/>
@@ -1576,24 +1576,24 @@
       <c r="A18" s="29">
         <v>6</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="57" t="s">
+      <c r="B18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="57"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="18"/>
@@ -1602,22 +1602,22 @@
       <c r="A19" s="29">
         <v>7</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57" t="s">
+      <c r="B19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I19" s="17"/>
       <c r="J19" s="18"/>
@@ -1626,36 +1626,36 @@
       <c r="A20" s="29">
         <v>8</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57" t="s">
+      <c r="B20" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1664,26 +1664,26 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="G22" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -1728,24 +1728,24 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="G28" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
     </row>
     <row r="70" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
